--- a/frm/pricing_engine/hull_white/zero_data.xlsx
+++ b/frm/pricing_engine/hull_white/zero_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shasa\Documents\finance_calcs\frm\frm\pricing_engine\hull_white\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516B6FE1-FF11-40AE-9725-8ABAD54F4318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E282B6-BFD4-4817-A98C-DC0B6D054753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79DB474E-5FF9-486E-ACD6-6CA91B488577}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>years</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>discount_factor</t>
-  </si>
-  <si>
-    <t>tenor_date</t>
   </si>
 </sst>
 </file>
@@ -511,9 +508,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -889,1121 +885,884 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84853955-78D0-4AFD-8857-E7337E20CB5A}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3.9682540000000001E-3</v>
       </c>
-      <c r="B2" s="1">
-        <v>45108</v>
+      <c r="B2">
+        <v>1.110682E-2</v>
       </c>
       <c r="C2">
-        <v>1.110682E-2</v>
-      </c>
-      <c r="D2">
         <v>0.99995592600000005</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.34794520499999998</v>
       </c>
-      <c r="B3" s="1">
-        <v>45234</v>
+      <c r="B3">
+        <v>1.5110682E-2</v>
       </c>
       <c r="C3">
-        <v>1.5110682E-2</v>
-      </c>
-      <c r="D3">
         <v>0.99475610800000003</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.43644665799999999</v>
       </c>
-      <c r="B4" s="1">
-        <v>45266</v>
+      <c r="B4">
+        <v>1.6120621000000002E-2</v>
       </c>
       <c r="C4">
-        <v>1.6120621000000002E-2</v>
-      </c>
-      <c r="D4">
         <v>0.99298890200000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.52494811100000005</v>
       </c>
-      <c r="B5" s="1">
-        <v>45299</v>
+      <c r="B5">
+        <v>1.7109843999999999E-2</v>
       </c>
       <c r="C5">
-        <v>1.7109843999999999E-2</v>
-      </c>
-      <c r="D5">
         <v>0.99105843500000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.61344956399999995</v>
       </c>
-      <c r="B6" s="1">
-        <v>45331</v>
+      <c r="B6">
+        <v>1.8078586000000001E-2</v>
       </c>
       <c r="C6">
-        <v>1.8078586000000001E-2</v>
-      </c>
-      <c r="D6">
         <v>0.98897097</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.70195101699999995</v>
       </c>
-      <c r="B7" s="1">
-        <v>45363</v>
+      <c r="B7">
+        <v>1.9027079999999998E-2</v>
       </c>
       <c r="C7">
-        <v>1.9027079999999998E-2</v>
-      </c>
-      <c r="D7">
         <v>0.98673271799999995</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.79045246899999999</v>
       </c>
-      <c r="B8" s="1">
-        <v>45396</v>
+      <c r="B8">
+        <v>1.9955561E-2</v>
       </c>
       <c r="C8">
-        <v>1.9955561E-2</v>
-      </c>
-      <c r="D8">
         <v>0.98434983399999998</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.878953922</v>
       </c>
-      <c r="B9" s="1">
-        <v>45428</v>
+      <c r="B9">
+        <v>2.0864262000000001E-2</v>
       </c>
       <c r="C9">
-        <v>2.0864262000000001E-2</v>
-      </c>
-      <c r="D9">
         <v>0.98182840599999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.96745537500000001</v>
       </c>
-      <c r="B10" s="1">
-        <v>45460</v>
+      <c r="B10">
+        <v>2.1753418E-2</v>
       </c>
       <c r="C10">
-        <v>2.1753418E-2</v>
-      </c>
-      <c r="D10">
         <v>0.97917444899999995</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.055956828</v>
       </c>
-      <c r="B11" s="1">
-        <v>45492</v>
+      <c r="B11">
+        <v>2.2623263000000001E-2</v>
       </c>
       <c r="C11">
-        <v>2.2623263000000001E-2</v>
-      </c>
-      <c r="D11">
         <v>0.97639389899999995</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.1444582809999999</v>
       </c>
-      <c r="B12" s="1">
-        <v>45525</v>
+      <c r="B12">
+        <v>2.347403E-2</v>
       </c>
       <c r="C12">
-        <v>2.347403E-2</v>
-      </c>
-      <c r="D12">
         <v>0.97349260699999995</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.232959734</v>
       </c>
-      <c r="B13" s="1">
-        <v>45557</v>
+      <c r="B13">
+        <v>2.4305955000000001E-2</v>
       </c>
       <c r="C13">
-        <v>2.4305955000000001E-2</v>
-      </c>
-      <c r="D13">
         <v>0.97047633300000002</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.3214611869999999</v>
       </c>
-      <c r="B14" s="1">
-        <v>45589</v>
+      <c r="B14">
+        <v>2.5119269999999999E-2</v>
       </c>
       <c r="C14">
-        <v>2.5119269999999999E-2</v>
-      </c>
-      <c r="D14">
         <v>0.96735073999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.40996264</v>
       </c>
-      <c r="B15" s="1">
-        <v>45622</v>
+      <c r="B15">
+        <v>2.591421E-2</v>
       </c>
       <c r="C15">
-        <v>2.591421E-2</v>
-      </c>
-      <c r="D15">
         <v>0.96412139100000005</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.4984640929999999</v>
       </c>
-      <c r="B16" s="1">
-        <v>45654</v>
+      <c r="B16">
+        <v>2.6691009000000002E-2</v>
       </c>
       <c r="C16">
-        <v>2.6691009000000002E-2</v>
-      </c>
-      <c r="D16">
         <v>0.96079374399999995</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.586965545</v>
       </c>
-      <c r="B17" s="1">
-        <v>45686</v>
+      <c r="B17">
+        <v>2.7449902000000002E-2</v>
       </c>
       <c r="C17">
-        <v>2.7449902000000002E-2</v>
-      </c>
-      <c r="D17">
         <v>0.95737314900000003</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.6754669980000001</v>
       </c>
-      <c r="B18" s="1">
-        <v>45719</v>
+      <c r="B18">
+        <v>2.8191121E-2</v>
       </c>
       <c r="C18">
-        <v>2.8191121E-2</v>
-      </c>
-      <c r="D18">
         <v>0.95386484100000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.763968451</v>
       </c>
-      <c r="B19" s="1">
-        <v>45751</v>
+      <c r="B19">
+        <v>2.8914901999999999E-2</v>
       </c>
       <c r="C19">
-        <v>2.8914901999999999E-2</v>
-      </c>
-      <c r="D19">
         <v>0.95027394300000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.8524699039999999</v>
       </c>
-      <c r="B20" s="1">
-        <v>45783</v>
+      <c r="B20">
+        <v>2.9621478E-2</v>
       </c>
       <c r="C20">
-        <v>2.9621478E-2</v>
-      </c>
-      <c r="D20">
         <v>0.94660545699999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.940971357</v>
       </c>
-      <c r="B21" s="1">
-        <v>45815</v>
+      <c r="B21">
+        <v>3.0311083999999999E-2</v>
       </c>
       <c r="C21">
-        <v>3.0311083999999999E-2</v>
-      </c>
-      <c r="D21">
         <v>0.94286426599999995</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2.0294728100000001</v>
       </c>
-      <c r="B22" s="1">
-        <v>45848</v>
+      <c r="B22">
+        <v>3.0983953000000002E-2</v>
       </c>
       <c r="C22">
-        <v>3.0983953000000002E-2</v>
-      </c>
-      <c r="D22">
         <v>0.93905513100000004</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2.1179742629999998</v>
       </c>
-      <c r="B23" s="1">
-        <v>45880</v>
+      <c r="B23">
+        <v>3.1640319E-2</v>
       </c>
       <c r="C23">
-        <v>3.1640319E-2</v>
-      </c>
-      <c r="D23">
         <v>0.93518268699999996</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2.2064757159999999</v>
       </c>
-      <c r="B24" s="1">
-        <v>45912</v>
+      <c r="B24">
+        <v>3.2280416999999999E-2</v>
       </c>
       <c r="C24">
-        <v>3.2280416999999999E-2</v>
-      </c>
-      <c r="D24">
         <v>0.93125144599999998</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2.294977169</v>
       </c>
-      <c r="B25" s="1">
-        <v>45945</v>
+      <c r="B25">
+        <v>3.290448E-2</v>
       </c>
       <c r="C25">
-        <v>3.290448E-2</v>
-      </c>
-      <c r="D25">
         <v>0.92726579200000003</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2.3834786210000001</v>
       </c>
-      <c r="B26" s="1">
-        <v>45977</v>
+      <c r="B26">
+        <v>3.3512743999999997E-2</v>
       </c>
       <c r="C26">
-        <v>3.3512743999999997E-2</v>
-      </c>
-      <c r="D26">
         <v>0.92322998099999998</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2.4719800740000002</v>
       </c>
-      <c r="B27" s="1">
-        <v>46009</v>
+      <c r="B27">
+        <v>3.4105441E-2</v>
       </c>
       <c r="C27">
-        <v>3.4105441E-2</v>
-      </c>
-      <c r="D27">
         <v>0.91914814300000003</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2.5604815269999999</v>
       </c>
-      <c r="B28" s="1">
-        <v>46042</v>
+      <c r="B28">
+        <v>3.4682804999999997E-2</v>
       </c>
       <c r="C28">
-        <v>3.4682804999999997E-2</v>
-      </c>
-      <c r="D28">
         <v>0.91502427600000003</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2.64898298</v>
       </c>
-      <c r="B29" s="1">
-        <v>46074</v>
+      <c r="B29">
+        <v>3.5245072000000002E-2</v>
       </c>
       <c r="C29">
-        <v>3.5245072000000002E-2</v>
-      </c>
-      <c r="D29">
         <v>0.91086225399999998</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2.7374844330000001</v>
       </c>
-      <c r="B30" s="1">
-        <v>46106</v>
+      <c r="B30">
+        <v>3.5792474999999997E-2</v>
       </c>
       <c r="C30">
-        <v>3.5792474999999997E-2</v>
-      </c>
-      <c r="D30">
         <v>0.90666581999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2.8259858859999998</v>
       </c>
-      <c r="B31" s="1">
-        <v>46138</v>
+      <c r="B31">
+        <v>3.6325246999999998E-2</v>
       </c>
       <c r="C31">
-        <v>3.6325246999999998E-2</v>
-      </c>
-      <c r="D31">
         <v>0.90243858899999996</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2.9144873389999999</v>
       </c>
-      <c r="B32" s="1">
-        <v>46171</v>
+      <c r="B32">
+        <v>3.6843623999999998E-2</v>
       </c>
       <c r="C32">
-        <v>3.6843623999999998E-2</v>
-      </c>
-      <c r="D32">
         <v>0.89818405099999998</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3.002988792</v>
       </c>
-      <c r="B33" s="1">
-        <v>46203</v>
+      <c r="B33">
+        <v>3.7347839000000001E-2</v>
       </c>
       <c r="C33">
-        <v>3.7347839000000001E-2</v>
-      </c>
-      <c r="D33">
         <v>0.89390556499999996</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3.0914902450000001</v>
       </c>
-      <c r="B34" s="1">
-        <v>46235</v>
+      <c r="B34">
+        <v>3.7838126E-2</v>
       </c>
       <c r="C34">
-        <v>3.7838126E-2</v>
-      </c>
-      <c r="D34">
         <v>0.88960636900000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3.1799916970000002</v>
       </c>
-      <c r="B35" s="1">
-        <v>46268</v>
+      <c r="B35">
+        <v>3.8314718999999997E-2</v>
       </c>
       <c r="C35">
-        <v>3.8314718999999997E-2</v>
-      </c>
-      <c r="D35">
         <v>0.88528957100000005</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3.2684931499999998</v>
       </c>
-      <c r="B36" s="1">
-        <v>46300</v>
+      <c r="B36">
+        <v>3.8777853000000001E-2</v>
       </c>
       <c r="C36">
-        <v>3.8777853000000001E-2</v>
-      </c>
-      <c r="D36">
         <v>0.88095816000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3.356994603</v>
       </c>
-      <c r="B37" s="1">
-        <v>46332</v>
+      <c r="B37">
+        <v>3.9227761E-2</v>
       </c>
       <c r="C37">
-        <v>3.9227761E-2</v>
-      </c>
-      <c r="D37">
         <v>0.87661499899999995</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3.4454960560000001</v>
       </c>
-      <c r="B38" s="1">
-        <v>46365</v>
+      <c r="B38">
+        <v>3.9664677000000002E-2</v>
       </c>
       <c r="C38">
-        <v>3.9664677000000002E-2</v>
-      </c>
-      <c r="D38">
         <v>0.87226283199999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3.5339975090000002</v>
       </c>
-      <c r="B39" s="1">
-        <v>46397</v>
+      <c r="B39">
+        <v>4.0088836000000003E-2</v>
       </c>
       <c r="C39">
-        <v>4.0088836000000003E-2</v>
-      </c>
-      <c r="D39">
         <v>0.86790428100000006</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3.6224989619999999</v>
       </c>
-      <c r="B40" s="1">
-        <v>46429</v>
+      <c r="B40">
+        <v>4.0500471000000003E-2</v>
       </c>
       <c r="C40">
-        <v>4.0500471000000003E-2</v>
-      </c>
-      <c r="D40">
         <v>0.863541852</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3.711000415</v>
       </c>
-      <c r="B41" s="1">
-        <v>46462</v>
+      <c r="B41">
+        <v>4.0899816999999998E-2</v>
       </c>
       <c r="C41">
-        <v>4.0899816999999998E-2</v>
-      </c>
-      <c r="D41">
         <v>0.85917793200000003</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3.7995018680000001</v>
       </c>
-      <c r="B42" s="1">
-        <v>46494</v>
+      <c r="B42">
+        <v>4.1287108000000003E-2</v>
       </c>
       <c r="C42">
-        <v>4.1287108000000003E-2</v>
-      </c>
-      <c r="D42">
         <v>0.85481479699999996</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3.8880033209999998</v>
       </c>
-      <c r="B43" s="1">
-        <v>46526</v>
+      <c r="B43">
+        <v>4.1662577999999999E-2</v>
       </c>
       <c r="C43">
-        <v>4.1662577999999999E-2</v>
-      </c>
-      <c r="D43">
         <v>0.85045460699999997</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3.9765047729999998</v>
       </c>
-      <c r="B44" s="1">
-        <v>46558</v>
+      <c r="B44">
+        <v>4.2026460000000002E-2</v>
       </c>
       <c r="C44">
-        <v>4.2026460000000002E-2</v>
-      </c>
-      <c r="D44">
         <v>0.84609941</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4.0650062260000004</v>
       </c>
-      <c r="B45" s="1">
-        <v>46591</v>
+      <c r="B45">
+        <v>4.2378989999999998E-2</v>
       </c>
       <c r="C45">
-        <v>4.2378989999999998E-2</v>
-      </c>
-      <c r="D45">
         <v>0.84175114799999995</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4.1535076789999996</v>
       </c>
-      <c r="B46" s="1">
-        <v>46623</v>
+      <c r="B46">
+        <v>4.2720399999999999E-2</v>
       </c>
       <c r="C46">
-        <v>4.2720399999999999E-2</v>
-      </c>
-      <c r="D46">
         <v>0.83741165399999995</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4.2420091319999997</v>
       </c>
-      <c r="B47" s="1">
-        <v>46655</v>
+      <c r="B47">
+        <v>4.3050924999999997E-2</v>
       </c>
       <c r="C47">
-        <v>4.3050924999999997E-2</v>
-      </c>
-      <c r="D47">
         <v>0.83308265299999995</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4.3305105849999999</v>
       </c>
-      <c r="B48" s="1">
-        <v>46688</v>
+      <c r="B48">
+        <v>4.3370800000000001E-2</v>
       </c>
       <c r="C48">
-        <v>4.3370800000000001E-2</v>
-      </c>
-      <c r="D48">
         <v>0.82876577200000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4.419012038</v>
       </c>
-      <c r="B49" s="1">
-        <v>46720</v>
+      <c r="B49">
+        <v>4.3680257E-2</v>
       </c>
       <c r="C49">
-        <v>4.3680257E-2</v>
-      </c>
-      <c r="D49">
         <v>0.824462531</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4.5075134910000001</v>
       </c>
-      <c r="B50" s="1">
-        <v>46752</v>
+      <c r="B50">
+        <v>4.3979532000000002E-2</v>
       </c>
       <c r="C50">
-        <v>4.3979532000000002E-2</v>
-      </c>
-      <c r="D50">
         <v>0.82017435500000002</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4.5960149440000002</v>
       </c>
-      <c r="B51" s="1">
-        <v>46785</v>
+      <c r="B51">
+        <v>4.4268858000000001E-2</v>
       </c>
       <c r="C51">
-        <v>4.4268858000000001E-2</v>
-      </c>
-      <c r="D51">
         <v>0.81590256800000005</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4.6845163970000003</v>
       </c>
-      <c r="B52" s="1">
-        <v>46817</v>
+      <c r="B52">
+        <v>4.4548469E-2</v>
       </c>
       <c r="C52">
-        <v>4.4548469E-2</v>
-      </c>
-      <c r="D52">
         <v>0.81164840199999999</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4.7730178490000004</v>
       </c>
-      <c r="B53" s="1">
-        <v>46849</v>
+      <c r="B53">
+        <v>4.48186E-2</v>
       </c>
       <c r="C53">
-        <v>4.48186E-2</v>
-      </c>
-      <c r="D53">
         <v>0.80741299300000002</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4.8615193019999996</v>
       </c>
-      <c r="B54" s="1">
-        <v>46881</v>
+      <c r="B54">
+        <v>4.5079484000000003E-2</v>
       </c>
       <c r="C54">
-        <v>4.5079484000000003E-2</v>
-      </c>
-      <c r="D54">
         <v>0.80319738699999998</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4.9500207549999997</v>
       </c>
-      <c r="B55" s="1">
-        <v>46914</v>
+      <c r="B55">
+        <v>4.5331356000000003E-2</v>
       </c>
       <c r="C55">
-        <v>4.5331356000000003E-2</v>
-      </c>
-      <c r="D55">
         <v>0.79900254000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5.0385222079999998</v>
       </c>
-      <c r="B56" s="1">
-        <v>46946</v>
+      <c r="B56">
+        <v>4.5574450000000002E-2</v>
       </c>
       <c r="C56">
-        <v>4.5574450000000002E-2</v>
-      </c>
-      <c r="D56">
         <v>0.794829322</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5.127023661</v>
       </c>
-      <c r="B57" s="1">
-        <v>46978</v>
+      <c r="B57">
+        <v>4.5808999000000003E-2</v>
       </c>
       <c r="C57">
-        <v>4.5808999000000003E-2</v>
-      </c>
-      <c r="D57">
         <v>0.79067851700000003</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5.2155251140000001</v>
       </c>
-      <c r="B58" s="1">
-        <v>47011</v>
+      <c r="B58">
+        <v>4.6035237E-2</v>
       </c>
       <c r="C58">
-        <v>4.6035237E-2</v>
-      </c>
-      <c r="D58">
         <v>0.78655082499999995</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5.3040265670000002</v>
       </c>
-      <c r="B59" s="1">
-        <v>47043</v>
+      <c r="B59">
+        <v>4.62534E-2</v>
       </c>
       <c r="C59">
-        <v>4.62534E-2</v>
-      </c>
-      <c r="D59">
         <v>0.78244686500000005</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5.3925280200000003</v>
       </c>
-      <c r="B60" s="1">
-        <v>47075</v>
+      <c r="B60">
+        <v>4.646372E-2</v>
       </c>
       <c r="C60">
-        <v>4.646372E-2</v>
-      </c>
-      <c r="D60">
         <v>0.77836717899999996</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>5.4810294730000004</v>
       </c>
-      <c r="B61" s="1">
-        <v>47108</v>
+      <c r="B61">
+        <v>4.6666433E-2</v>
       </c>
       <c r="C61">
-        <v>4.6666433E-2</v>
-      </c>
-      <c r="D61">
         <v>0.77431222600000005</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>5.5695309249999996</v>
       </c>
-      <c r="B62" s="1">
-        <v>47140</v>
+      <c r="B62">
+        <v>4.6861771000000003E-2</v>
       </c>
       <c r="C62">
-        <v>4.6861771000000003E-2</v>
-      </c>
-      <c r="D62">
         <v>0.77028239600000004</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5.6580323779999997</v>
       </c>
-      <c r="B63" s="1">
-        <v>47172</v>
+      <c r="B63">
+        <v>4.7049968999999997E-2</v>
       </c>
       <c r="C63">
-        <v>4.7049968999999997E-2</v>
-      </c>
-      <c r="D63">
         <v>0.76627800000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>5.7465338309999998</v>
       </c>
-      <c r="B64" s="1">
-        <v>47204</v>
+      <c r="B64">
+        <v>4.7231262000000003E-2</v>
       </c>
       <c r="C64">
-        <v>4.7231262000000003E-2</v>
-      </c>
-      <c r="D64">
         <v>0.76229928000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>5.8350352839999999</v>
       </c>
-      <c r="B65" s="1">
-        <v>47237</v>
+      <c r="B65">
+        <v>4.7405883000000003E-2</v>
       </c>
       <c r="C65">
-        <v>4.7405883000000003E-2</v>
-      </c>
-      <c r="D65">
         <v>0.75834640600000003</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>5.9235367370000001</v>
       </c>
-      <c r="B66" s="1">
-        <v>47269</v>
+      <c r="B66">
+        <v>4.7574064999999999E-2</v>
       </c>
       <c r="C66">
-        <v>4.7574064999999999E-2</v>
-      </c>
-      <c r="D66">
         <v>0.754419481</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6.0120381900000002</v>
       </c>
-      <c r="B67" s="1">
-        <v>47301</v>
+      <c r="B67">
+        <v>4.7736044999999998E-2</v>
       </c>
       <c r="C67">
-        <v>4.7736044999999998E-2</v>
-      </c>
-      <c r="D67">
         <v>0.75051854100000004</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>6.1005396430000003</v>
       </c>
-      <c r="B68" s="1">
-        <v>47334</v>
+      <c r="B68">
+        <v>4.7892054000000003E-2</v>
       </c>
       <c r="C68">
-        <v>4.7892054000000003E-2</v>
-      </c>
-      <c r="D68">
         <v>0.74664355599999999</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>6.1890410960000004</v>
       </c>
-      <c r="B69" s="1">
-        <v>47366</v>
+      <c r="B69">
+        <v>4.8042328000000002E-2</v>
       </c>
       <c r="C69">
-        <v>4.8042328000000002E-2</v>
-      </c>
-      <c r="D69">
         <v>0.742794434</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>6.2775425489999996</v>
       </c>
-      <c r="B70" s="1">
-        <v>47398</v>
+      <c r="B70">
+        <v>4.8187101000000003E-2</v>
       </c>
       <c r="C70">
-        <v>4.8187101000000003E-2</v>
-      </c>
-      <c r="D70">
         <v>0.73897101899999995</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>6.3660440009999997</v>
       </c>
-      <c r="B71" s="1">
-        <v>47431</v>
+      <c r="B71">
+        <v>4.8326606000000001E-2</v>
       </c>
       <c r="C71">
-        <v>4.8326606000000001E-2</v>
-      </c>
-      <c r="D71">
         <v>0.73517309900000005</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>6.4545454539999998</v>
       </c>
-      <c r="B72" s="1">
-        <v>47463</v>
+      <c r="B72">
+        <v>4.8461076999999998E-2</v>
       </c>
       <c r="C72">
-        <v>4.8461076999999998E-2</v>
-      </c>
-      <c r="D72">
         <v>0.73140039999999995</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>6.5430469069999999</v>
       </c>
-      <c r="B73" s="1">
-        <v>47495</v>
+      <c r="B73">
+        <v>4.8590750000000002E-2</v>
       </c>
       <c r="C73">
-        <v>4.8590750000000002E-2</v>
-      </c>
-      <c r="D73">
         <v>0.72765259100000002</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>6.63154836</v>
       </c>
-      <c r="B74" s="1">
-        <v>47528</v>
+      <c r="B74">
+        <v>4.8715857000000001E-2</v>
       </c>
       <c r="C74">
-        <v>4.8715857000000001E-2</v>
-      </c>
-      <c r="D74">
         <v>0.723929288</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>6.7200498130000001</v>
       </c>
-      <c r="B75" s="1">
-        <v>47560</v>
+      <c r="B75">
+        <v>4.8836632999999997E-2</v>
       </c>
       <c r="C75">
-        <v>4.8836632999999997E-2</v>
-      </c>
-      <c r="D75">
         <v>0.72023004999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>6.8085512660000003</v>
       </c>
-      <c r="B76" s="1">
-        <v>47592</v>
+      <c r="B76">
+        <v>4.8953310999999999E-2</v>
       </c>
       <c r="C76">
-        <v>4.8953310999999999E-2</v>
-      </c>
-      <c r="D76">
         <v>0.71655438599999999</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>6.8970527190000004</v>
       </c>
-      <c r="B77" s="1">
-        <v>47624</v>
+      <c r="B77">
+        <v>4.9066127000000001E-2</v>
       </c>
       <c r="C77">
-        <v>4.9066127000000001E-2</v>
-      </c>
-      <c r="D77">
         <v>0.71290175099999997</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>6.9855541719999996</v>
       </c>
-      <c r="B78" s="1">
-        <v>47657</v>
+      <c r="B78">
+        <v>4.9175313999999998E-2</v>
       </c>
       <c r="C78">
-        <v>4.9175313999999998E-2</v>
-      </c>
-      <c r="D78">
         <v>0.70927155200000003</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>7.0740556249999997</v>
       </c>
-      <c r="B79" s="1">
-        <v>47689</v>
+      <c r="B79">
+        <v>4.9281105999999998E-2</v>
       </c>
       <c r="C79">
-        <v>4.9281105999999998E-2</v>
-      </c>
-      <c r="D79">
         <v>0.70566314900000005</v>
       </c>
     </row>

--- a/frm/pricing_engine/hull_white/zero_data.xlsx
+++ b/frm/pricing_engine/hull_white/zero_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shasa\Documents\finance_calcs\frm\frm\pricing_engine\hull_white\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E282B6-BFD4-4817-A98C-DC0B6D054753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE243A1-B6BF-4280-AC6B-BA499B7EAA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79DB474E-5FF9-486E-ACD6-6CA91B488577}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{79DB474E-5FF9-486E-ACD6-6CA91B488577}"/>
   </bookViews>
   <sheets>
     <sheet name="Strips" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
     <t>years</t>
   </si>
   <si>
-    <t>zero_rates</t>
+    <t>discount_factor</t>
   </si>
   <si>
-    <t>discount_factor</t>
+    <t>zero_rate</t>
   </si>
 </sst>
 </file>
@@ -888,7 +888,7 @@
   <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
